--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1040.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1040.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7848912142282028</v>
+        <v>0.5484259724617004</v>
       </c>
       <c r="B1">
-        <v>3.321280249854128</v>
+        <v>1.212943434715271</v>
       </c>
       <c r="C1">
-        <v>2.687059321561808</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.480646560211963</v>
+        <v>2.087329864501953</v>
       </c>
       <c r="E1">
-        <v>2.069068655377371</v>
+        <v>1.108350396156311</v>
       </c>
     </row>
   </sheetData>
